--- a/results/metric_df/CA_metrics.xlsx
+++ b/results/metric_df/CA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,35 +451,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>sum_SASA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max_SASA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>flexibility</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>conformation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>monosaccharides</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>motifs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -488,252 +498,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2396003685956025</v>
+        <v>1.205755702476461</v>
       </c>
       <c r="C2" t="n">
-        <v>2.315462523559917</v>
+        <v>1.901990340784573</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7807833333333334</v>
+        <v>13.31393238549201</v>
       </c>
       <c r="E2" t="n">
-        <v>0.419</v>
+        <v>2.596661214730085</v>
       </c>
       <c r="F2" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
+        <v>24.47100952380953</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4384285714285714</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.41</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.205755702476461</v>
+        <v>-0.1785431686174741</v>
       </c>
       <c r="C3" t="n">
-        <v>2.224273281242684</v>
+        <v>1.682105456660559</v>
       </c>
       <c r="D3" t="n">
-        <v>31.606575</v>
+        <v>11.77473819662391</v>
       </c>
       <c r="E3" t="n">
-        <v>0.457</v>
+        <v>2.425021331076254</v>
       </c>
       <c r="F3" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
-        </is>
+        <v>27.30604857142857</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4505714285714286</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.141428571428571</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1074666164753811</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.669142786290044</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.817538246175381</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4565</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0595761140557923</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.63639127321597</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.35031503150315</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2658099247432915</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.626073631843238</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.137133333333335</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4355</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.370000000000001</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.0316468774388672</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.3684476110844</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.6741</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>O</t>
         </is>
       </c>
     </row>

--- a/results/metric_df/CA_metrics.xlsx
+++ b/results/metric_df/CA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>1.205755702476461</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.901990340784573</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>13.31393238549201</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.596661214730085</v>
-      </c>
       <c r="F2" t="n">
-        <v>24.47100952380953</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4384285714285714</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>21.4689035334009</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>-0.1785431686174741</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.682105456660559</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>11.77473819662391</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.425021331076254</v>
-      </c>
       <c r="F3" t="n">
-        <v>27.30604857142857</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4505714285714286</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.141428571428571</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Man(a1-3)', 'Man(b1-4)', 'Man(a1-6)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-3/4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-3/4)GlcNAc(b1-2)Man(a1-6)]Man']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
+        <v>19.96344974679717</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
